--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_ISLECHEM LLC.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_ISLECHEM LLC.xlsx
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="D10" t="n">
         <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.048</v>
+        <v>0.00000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.00000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.0000000000000000097</v>
       </c>
     </row>
   </sheetData>
